--- a/biology/Botanique/Chondrus/Chondrus.xlsx
+++ b/biology/Botanique/Chondrus/Chondrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrus est un genre d'algues rouges de la famille des Gigartinaceae. Appelé aussi varech, mousse d'irlande, lichen de mer, carraghéen, pioka... selon les régions et les époques.
 Le genre Chondrus contient 12 espèces décrites, parmi lesquelles Chondrus crispus, très utilisée en agroalimentaire, pour la production de carraghénanes, gélifiants utilisés pour épaissir les flans, yaourts, crèmes glacées, dentifrices…
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 mai 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 mai 2012) :
 Chondrus adriaticus Zanardini (Sans vérification)
 Chondrus agathoicus J.V.Lamouroux (Sans vérification)
 Chondrus albemarlensis W.R.Taylor (Statut incertain)
@@ -576,7 +590,7 @@
 Chondrus virgatus Schousboe (Statut incertain)
 Chondrus wrightii (Turner) Kützing (Sans vérification)
 Chondrus yendoi Yamada &amp; Mikami
-Selon Catalogue of Life                                  (6 mai 2012)[2] :
+Selon Catalogue of Life                                  (6 mai 2012) :
 Chondrus albemarlensis
 Chondrus canaliculatus
 Chondrus crispus
@@ -592,10 +606,10 @@
 Chondrus verrucosus
 Chondrus yamadae
 Chondrus yendoi
-Selon ITIS      (6 mai 2012)[3] :
+Selon ITIS      (6 mai 2012) :
 Chondrus crispus (Linnaeus) J. Stackhouse
 Chondrus ocellatus
-Selon NCBI  (6 mai 2012)[4] :
+Selon NCBI  (6 mai 2012) :
 Chondrus armatus
 Chondrus canaliculatus
 Chondrus crispus
@@ -609,7 +623,7 @@
 Chondrus platynus
 Chondrus verrucosus
 Chondrus yendoi
-Selon World Register of Marine Species                               (6 mai 2012)[5] :
+Selon World Register of Marine Species                               (6 mai 2012) :
 Chondrus armatus (Harvey) Okamura, 1930
 Chondrus canaliculatus (C.Agardh) Greville, 1830
 Chondrus crispus Stackhouse, 1797
